--- a/docs/wto_histogram.xlsx
+++ b/docs/wto_histogram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ds.leeds.ac.uk\staff\staff19\medgcru\Documents\NLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medgcru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="wto_edited" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -844,6 +844,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,10 +924,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>per day French / per day Spanish</a:t>
             </a:r>
           </a:p>
@@ -951,7 +952,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>wto_edited!$L$3:$L$20</c:f>
+              <c:f>wto_edited!$K$3:$K$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1013,7 +1014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>wto_edited!$M$3:$M$20</c:f>
+              <c:f>wto_edited!$L$3:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1084,11 +1085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="270472784"/>
-        <c:axId val="270473176"/>
+        <c:axId val="273991544"/>
+        <c:axId val="273991936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="270472784"/>
+        <c:axId val="273991544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,8 +1106,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Bin</a:t>
+                  <a:t>ratio</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of words translated per day</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1117,7 +1123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270473176"/>
+        <c:crossAx val="273991936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270473176"/>
+        <c:axId val="273991936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,16 +1160,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270472784"/>
+        <c:crossAx val="273991544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1176,20 +1177,3086 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>wto_edited!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DAYS FRENCH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>wto_edited!$C$2:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3838</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17620</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3522</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3718</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3596</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8185</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36371</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>212604</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3905</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7403</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3388</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6443</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4195</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5179</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7918</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>56367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6892</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4682</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18578</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18429</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21073</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55814</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24869</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103066</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8862</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>wto_edited!$D$2:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="270621424"/>
+        <c:axId val="270621816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="270621424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Number of Words in Document</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270621816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="270621816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Time Taken to Translate (days)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270621424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>wto_edited!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DAYS SPANISH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>wto_edited!$C$2:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3838</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17620</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3522</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3718</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3596</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8185</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36371</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>212604</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3905</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7403</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6032</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3388</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6443</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4195</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5179</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4675</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7918</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>56367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6892</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4682</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18578</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18429</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21073</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55814</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24869</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103066</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8862</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>wto_edited!$E$2:$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10.322916666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="270627696"/>
+        <c:axId val="270622600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="270627696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Number of Words in Document</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270622600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="270622600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Time Taken to Translate (days)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-GB" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270627696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1203,6 +4270,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1474,44 +4601,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1014.17</v>
       </c>
@@ -1539,14 +4679,14 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1270.17</v>
       </c>
@@ -1574,14 +4714,14 @@
       <c r="I3">
         <v>0.25</v>
       </c>
-      <c r="L3" s="4">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2136.1799999999998</v>
       </c>
@@ -1609,14 +4749,14 @@
       <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="4">
         <v>0.25</v>
       </c>
-      <c r="M4" s="1">
+      <c r="L4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8361.18</v>
       </c>
@@ -1644,14 +4784,14 @@
       <c r="I5">
         <v>0.75</v>
       </c>
-      <c r="L5" s="4">
+      <c r="K5" s="4">
         <v>0.5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1067.18</v>
       </c>
@@ -1679,14 +4819,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
+      <c r="K6" s="4">
         <v>0.75</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1948.18</v>
       </c>
@@ -1714,14 +4854,14 @@
       <c r="I7">
         <v>1.25</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9928.18</v>
       </c>
@@ -1749,14 +4889,14 @@
       <c r="I8">
         <v>1.5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="K8" s="4">
         <v>1.25</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1055.17</v>
       </c>
@@ -1784,14 +4924,14 @@
       <c r="I9">
         <v>1.75</v>
       </c>
-      <c r="L9" s="4">
+      <c r="K9" s="4">
         <v>1.5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1323.17</v>
       </c>
@@ -1819,14 +4959,14 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="K10" s="4">
         <v>1.75</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2259.17</v>
       </c>
@@ -1854,14 +4994,14 @@
       <c r="I11">
         <v>2.25</v>
       </c>
-      <c r="L11" s="4">
+      <c r="K11" s="4">
         <v>2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="L11" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>451.17</v>
       </c>
@@ -1889,14 +5029,14 @@
       <c r="I12">
         <v>2.5</v>
       </c>
-      <c r="L12" s="4">
+      <c r="K12" s="4">
         <v>2.25</v>
       </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2311.17</v>
       </c>
@@ -1924,14 +5064,14 @@
       <c r="I13">
         <v>2.75</v>
       </c>
-      <c r="L13" s="4">
+      <c r="K13" s="4">
         <v>2.5</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3966.17</v>
       </c>
@@ -1959,14 +5099,14 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="L14" s="4">
+      <c r="K14" s="4">
         <v>2.75</v>
       </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2985.18</v>
       </c>
@@ -1994,14 +5134,14 @@
       <c r="I15">
         <v>3.25</v>
       </c>
-      <c r="L15" s="4">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="M15" s="1">
+      <c r="L15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8417.18</v>
       </c>
@@ -2029,14 +5169,14 @@
       <c r="I16">
         <v>3.5</v>
       </c>
-      <c r="L16" s="4">
+      <c r="K16" s="4">
         <v>3.25</v>
       </c>
-      <c r="M16" s="1">
+      <c r="L16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5927.18</v>
       </c>
@@ -2064,14 +5204,14 @@
       <c r="I17">
         <v>3.75</v>
       </c>
-      <c r="L17" s="4">
+      <c r="K17" s="4">
         <v>3.5</v>
       </c>
-      <c r="M17" s="1">
+      <c r="L17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1540.17</v>
       </c>
@@ -2099,14 +5239,14 @@
       <c r="I18">
         <v>4</v>
       </c>
-      <c r="L18" s="4">
+      <c r="K18" s="4">
         <v>3.75</v>
       </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9874.18</v>
       </c>
@@ -2131,14 +5271,14 @@
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="K19" s="4">
         <v>4</v>
       </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9875.18</v>
       </c>
@@ -2163,14 +5303,14 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="2">
+      <c r="L20" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1687.18</v>
       </c>
@@ -2196,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7046.17</v>
       </c>
@@ -2222,7 +5362,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2398.17</v>
       </c>
@@ -2248,7 +5388,7 @@
         <v>0.19148936170212799</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>422.18</v>
       </c>
@@ -2274,7 +5414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8859.18</v>
       </c>
@@ -2300,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1230.17</v>
       </c>
@@ -2326,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3399.18</v>
       </c>
@@ -2352,7 +5492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3930.17</v>
       </c>
@@ -2378,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>794.17</v>
       </c>
@@ -2404,7 +5544,7 @@
         <v>0.33333333333333198</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4139.17</v>
       </c>
@@ -2430,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>11462.18</v>
       </c>
@@ -2456,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>613.17999999999995</v>
       </c>
@@ -2898,7 +6038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2959.18</v>
       </c>
@@ -2924,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10386.18</v>
       </c>
@@ -2950,7 +6090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1450.17</v>
       </c>
@@ -2976,7 +6116,7 @@
         <v>1.7777777777777799</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4900.18</v>
       </c>
@@ -3002,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>593.17999999999995</v>
       </c>
@@ -3028,7 +6168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7000.17</v>
       </c>
@@ -3054,7 +6194,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8310.17</v>
       </c>
@@ -3080,7 +6220,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2271.17</v>
       </c>
@@ -3105,10 +6245,8 @@
       <c r="H56">
         <v>0.25</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5065.18</v>
       </c>
@@ -3133,10 +6271,10 @@
       <c r="H57">
         <v>5.5</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L57" s="4"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2459.17</v>
       </c>
@@ -3161,10 +6299,10 @@
       <c r="H58">
         <v>1.1428571428571399</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L58" s="4"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10105.17</v>
       </c>
@@ -3189,10 +6327,10 @@
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L59" s="4"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11358.18</v>
       </c>
@@ -3217,10 +6355,10 @@
       <c r="H60">
         <v>1</v>
       </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L60" s="4"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7568.17</v>
       </c>
@@ -3245,10 +6383,10 @@
       <c r="H61">
         <v>7.4999999999999796</v>
       </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L61" s="4"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>234.17</v>
       </c>
@@ -3273,10 +6411,10 @@
       <c r="H62">
         <v>2</v>
       </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L62" s="4"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4130.18</v>
       </c>
@@ -3301,10 +6439,10 @@
       <c r="H63">
         <v>2</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L63" s="4"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8921.17</v>
       </c>
@@ -3329,10 +6467,8 @@
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11202.17</v>
       </c>
@@ -3357,10 +6493,8 @@
       <c r="H65">
         <v>2</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10614.17</v>
       </c>
@@ -3386,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7161.18</v>
       </c>
@@ -3412,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9406.18</v>
       </c>
@@ -3438,7 +6572,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2940.17</v>
       </c>
@@ -3464,7 +6598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>399.17</v>
       </c>
@@ -3490,7 +6624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>456.17</v>
       </c>
@@ -3516,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>296.17</v>
       </c>
@@ -3542,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3462.18</v>
       </c>
@@ -3568,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>178.18</v>
       </c>
@@ -3594,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3497.18</v>
       </c>
@@ -3620,7 +6754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1483.17</v>
       </c>
@@ -3646,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1638.17</v>
       </c>
@@ -3672,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10074.17</v>
       </c>
@@ -3698,7 +6832,7 @@
         <v>1.3333333333333399</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>437.18</v>
       </c>
@@ -3724,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10.17</v>
       </c>
@@ -4211,10 +7345,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="L3:L19">
-    <sortCondition ref="L3"/>
+  <sortState ref="K3:K19">
+    <sortCondition ref="K3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>